--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/58_Mersin_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/58_Mersin_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3929C870-A806-4514-BA35-4A9BF730B2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A4964D-6E50-4619-9E22-0FCFE296CA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{068A0B18-6F09-49CA-9464-18DDB599AA10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{A2548366-0C9C-4E81-A2F7-554F4DF1A402}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{418432CA-173E-476E-8540-8576900F9157}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F59EE7C0-30CB-4D00-B438-B3987788D1D2}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{3C04EC32-5B4F-48A0-8BE9-40F7C1D87FA5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{034DC0FC-F681-400D-8AEB-60BD7C2E315C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EF9B7049-40CF-4521-AE24-16E05B542864}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{0DE4824A-BA7B-4166-88D9-98F4EF70ACB1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0756DFC5-A766-4969-8724-7D1BA6917154}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FA25EFCD-CD7B-4F45-98C1-180B5CB31355}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8C6B6F05-F536-4CEF-A4F9-4A31F2C75D4C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A0163F19-D4C6-441E-AA2B-1AD3580F8C0B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{042B98B5-C1A5-4437-A75E-C3B8573819E3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A553C30E-37BF-480D-BC01-67299A3F6958}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{B76FF3BD-D0EB-4599-A03D-BCB96E4D9BFF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A6B5787A-1997-4DA0-95E2-F9A1FC06DEF0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5116C276-B00A-4B8D-968F-FAEACD5B700F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB5C64-B4FB-4B58-A11A-285F642D80D8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2590,18 +2590,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{182D81BE-84F3-4003-AE8E-41BA53EAF744}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B55DFD8-149D-4208-99E4-7AD489F963B2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1FBFBD37-AAB3-4DE9-A06D-0927DC1A31FE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3EDB3E5-C542-424D-A2C0-11EE81F5880B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FA7E31D-4C46-43F5-B68A-16F4124E5D7E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB0C243F-BE54-4583-BDBC-624FB096238B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2C370CC-9827-4A8F-AF16-9CA08014AD37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33D8EFBB-6704-42D7-B0AD-7631EEF66BC6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{686E6CFB-CD97-47D8-B4A0-C8707DF3C6A9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3DA5E71-BBF7-4CC8-A23E-E18B0C11C15D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DF9C8D3-DC2E-4BA2-8A6F-A19F822E440D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{601AECF0-A878-4FC7-9E3C-F2FEA46C42B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED36E040-254C-4995-AA50-63AE8F426F83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E7822B0-035C-4B36-B7E1-83F13FC7B43D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{031A24D6-DA02-4C80-B96B-FD0841E8BF56}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{776329FD-A2BB-4138-9B06-AF8274E05F12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB6D7614-59A4-4082-9242-FC4BB582327E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D73DBE6-87A5-4C34-A662-6FCB6B786401}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{161F9C1C-F637-4F6C-A3A1-AC3E3A0A72CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{236730DD-BAC2-497C-AAA1-44DC36BB4871}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E95A9E54-6DDD-4947-AB0C-5A695CBB87C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1F178CF-FBC2-45AD-AEFC-6338B431E233}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2970435-B5DC-4E5B-A09A-2389A6D64E50}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37A6BD92-C06B-4A6D-AD3C-50F38602E3E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2614,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECCE838-CB90-4059-B743-4C422D90A356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D02D1A6-2203-4ABA-9B65-93C7EE776AA5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3880,18 +3880,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8276055-6F00-46FB-AD45-0C53B6E29DD6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{769AD22B-1FC7-43BC-9C7A-1F056D2EFE05}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{751B4B14-E35F-46B9-A2C1-3ED6F61D3C59}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{069E9E4D-24E7-42C6-9D34-85D2C05451EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{008D53D7-A100-4DBA-856A-82716C8ECCD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B17623A0-0FE5-459B-9B97-45A0257D55C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C0ED45A-3614-4C82-A20C-B4681BC47902}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34D0FBC5-DAC5-407C-A204-437243071505}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2DA19DC-C4CC-4D01-884E-5B3017BF3173}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B200ADA6-8957-494B-B2ED-9A6A587A969F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C723A757-A4CD-4BD1-A425-E336FE3B3FBC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C77A01E6-9E6C-44BD-BE70-C686FC9F5087}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B93EEC61-06DF-4250-9672-47C4DA533649}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13EC6F32-EC66-41EE-AD06-5BF2D6F990B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E357E3F-2290-4EC1-BCBE-8471940EB6DA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{81412138-0179-4800-BA25-4284CB737B4E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1410DD9E-836E-43FC-B132-EC36682F192A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E4AE88C-F62B-46F1-BED3-C856B8E773A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{682AB60E-8038-4E11-A788-34900CF82BE8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36A7250B-0520-4941-B31A-13D679B08C10}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9760B25B-2B77-44C1-BDB8-A5701D042999}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7141C2E2-4B0C-46A5-85C5-B19F2074CF2C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7845C81C-4F25-40AA-ABE2-91268CC47E26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B769AE6-4497-4E9D-9B65-D93DEBC1AD25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852AC9D3-DEE5-4C91-90D8-5C395BD9A56C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E158B4-5281-4975-9A9B-E9FE5849E26C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5166,18 +5166,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B142CCE2-08D7-451E-AAAB-A7C4EAD1D25F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{727DBD9A-5589-4523-827A-9DBE8EC2F394}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A6951F4-0621-4BCC-B139-F3A5A58DD036}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB415E39-33B0-4911-82F5-EB211AA0134B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{080687F4-78D8-4F88-B89D-0D6FC344CE7C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E07DDAFB-AC47-45C9-9637-1F47457DD012}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9930ECEF-744F-4DDA-9D50-726610D79887}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0168207-D99A-4285-A4CD-56B1F0DEAB53}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B4C26C5-634C-4DE3-9A89-7814DDF52FB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CB70206-4E61-4CAD-8FEF-32F0917629AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78F028BC-E0B7-4B88-A274-64446EEFD42E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA20A2AA-9161-4AFC-AC39-2BD03C7A0D2B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F57BE9E7-D729-49E1-A12C-671DE2C4C9C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E27F158-AEA5-4BFA-AC3B-8B888956693C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE46129B-6E1E-43EC-9757-CB81ED4C9314}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AD400A9D-1B75-4206-821D-78A53754639E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40814566-4273-4517-B195-B77504E2C700}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A79779E-C39B-41C4-9785-56036D0B76F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C25E86D8-9DB2-4864-87BF-F5386CF24259}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C15CBF6-72F3-464D-ADA8-3DB1050A7D50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{461A7F0A-D5EE-4B08-ABE2-2289AEDA34A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8FD46B7-86BB-4E96-8BFA-7390DBEAF379}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C1AF094-A6A7-4239-92D1-3AA31DD2E125}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A07FB20-DAC8-4376-A2CA-EE1CD361B515}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5190,7 +5190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A98141-0A74-48B2-9EA2-F73DE23F7A3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F08AC80-C387-4B52-B212-226A40F6E336}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6440,18 +6440,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01CCDC46-DFD9-4B89-B221-B0292BF2C935}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F952A99A-D04D-46D5-9478-3AD96A62B646}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{72A76CBD-7F1D-4A8C-BC06-F397445A18EE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{32D070D5-3A61-4BB1-8B92-06F0A2AB131C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE8904AB-B48A-4E90-BC6E-225619027815}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6EFA5BCF-B827-47DA-9819-345B019BC30B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BEDB2ED-4AC8-4500-944C-354F3B81EB21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6898883-02C0-46BF-815F-7044D00C0E8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{494CB313-9C24-47AB-994C-99B2A2B50CA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61C185F9-5AB2-490D-81D9-725B2DAB1557}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAC3147E-AB67-4F9A-8EB0-C96080491D97}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14F3D40C-C119-4B92-89C1-1C2843FCF6DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE728D81-A86E-4E1F-81C0-16130D9AA4AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F088680F-1875-428B-96B3-23F8022506C4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5AB94ED-0398-4AF0-A692-BA486107C316}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{333F232A-DD7E-4017-81A6-0E348868FAF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EA6AA2B-B7C6-474E-A1C5-F35410094AE6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96072567-08F9-4127-990E-AE36E1E10C63}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{238EECF4-6FB8-46D0-9181-CF3C2036AE2B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BF1F705-1940-414F-8CB9-1F698466797D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{829326B8-0A56-4947-B493-4FA1ED659252}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E581722B-ABF0-4C9E-9EF7-3CE2AB8EEB88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F21F0E4F-992D-4534-87E3-F07B49258A55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA5DD8DE-029F-4A3B-A6C3-28B3D7F8D9A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6464,7 +6464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB10C1-2D9F-495E-AB61-A6C199A007A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F9B937-D736-4C85-B095-48D2CDCB0E91}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7737,18 +7737,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B85684BC-CD8B-47F1-B14F-26D0F7316343}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{679E56AA-AD01-4018-972B-095FFC42C8FB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B9C5E401-FAC7-4993-B9E4-7536B6DF9FF5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{829604F2-BFEE-4E80-9310-432B8B78CFDC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F48C3C5B-BADE-48B4-A4AE-9AA3C31AB4D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B9675BF-CFF9-492A-916C-0E3069EBF96F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E6B14FC-4594-4184-80B2-81DCB70F147E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{008C7898-AAFF-4CEA-BB14-6684AA19DCFA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61D28DCC-4058-4AC8-9CC1-C7577F960B7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CFB15808-1401-4D5A-9B37-323C3BDAF990}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{210F4FEE-B22D-4FCA-AD30-3CB8C33082EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55ED5222-1583-4F4D-8311-9EE3D76C0D44}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EA9744C-F34F-4F7E-BDE2-FFBCC68420BD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{428E1C33-0177-43A3-9074-8CFB703D14DE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7BA10690-CBA4-41B5-8741-25DE932B41B3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{50BF796C-45BD-4761-84E7-48D19919A0CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6AAA988-3F0D-45BD-B3D3-543D34458F0B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6921E009-0623-45C2-BF67-7A52000B1A89}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{57F1874C-BF46-45BD-83D5-8C09C687DD97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE03159E-E6CC-4D72-9B5C-7F35525B1725}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2893266F-E746-45C1-983E-131959D0D95A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C52433DF-FC78-48BD-8814-4138DF26B764}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{933FABE8-F002-4822-AE74-3B707043DEF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C05C4192-6422-410E-85E7-C1E92F6DDACE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7761,7 +7761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60770F2-F550-412B-9BB6-235F676D4F0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC737A8-4164-42B6-8EE7-2CF082483D85}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9034,18 +9034,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4950A24-A7A0-4EE1-94BB-8DEFEA665E7E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C718215-80A2-4A46-A5CF-A3C138B3E2BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{75160DDE-C6F6-4999-A243-7D3FF875C9E1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E5AB3F5F-0816-4A49-B338-62E629F0DF51}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6CB3F14B-9D49-427F-8DC5-DD3E4EF68EDE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C58D908-3A56-4BAC-AAA4-98088C6E6054}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0277886-88D6-4481-9102-2A85945E31F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{954CE75B-9745-425A-AB88-EA8ECA2A9771}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E41D1113-468F-4087-9281-70DA36FFBD8B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19FF9AEC-CB1F-42B3-B731-61B54F100A22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B553B63-2068-4EC0-9031-EB31AE0D22A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{071D468A-E57A-4DE0-8183-7488CB06FBD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8E55A56-950E-48B7-8C86-85396DFD7F96}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D1980D4-7427-479A-A1A2-1FD6B4102A03}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13DE6BEA-34AF-4F33-A1A3-467A60DD2812}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E9CC532-3813-40FC-B1E2-C9E106E59049}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F15E79D-8C61-49B8-AB41-158C9C47F295}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98BB3F00-A497-4A34-B398-C8F0DE9D3361}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D4EDB43-8E09-4D84-B8E9-9AAFFA726F0B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96FFFB72-837B-4314-A721-05AD33ADA932}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E3F597E-E179-42FF-82A7-1077AB13557A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E55812E6-7529-4325-BB9C-C785585F5E3B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F08521C-7971-4D6F-9204-912014AD0C76}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6CCEA2A-A9B3-454A-A6AD-5D83707F2F75}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9058,7 +9058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DA92E2-EC99-4821-BB9C-7FFCE621704B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40B0AA2-4B12-4C83-AC78-A6944C4E5E93}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10331,18 +10331,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1096913F-CF54-4EFD-ADD8-B86B6365523A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65AC7D6C-F5ED-4F69-80A7-A7C2C9091434}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{542EAF0F-1833-40FC-9FFB-15D1619F56F3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85C01C1D-BD7E-4667-BB96-6D5097E4131B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03B6A0D5-B2A9-4D92-9B67-1C0B4C4FBD46}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6E54977-2804-4B34-80DF-B4E21591262E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{148277CD-B011-43C4-AB4A-83BA007DD9AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F476ACCD-78A2-4FC7-A7A0-254B7F7E90A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{717A3D5F-A5D3-48F9-80E5-917208582389}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{555FF94A-1904-4CE3-B89A-D39C07465466}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8E37684-A275-4092-B3D7-6675E80461B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38C79739-A75B-4BA5-96DD-F342E47775F5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECD34EB6-2836-414A-9F31-A57466D89A09}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84FF0D84-7DD0-427B-A137-F70DDEB0606F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A82A5A22-47A8-4F42-B2C9-F1E92F5DDEC6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{068BD465-63BD-4E00-A8BD-E61B0455273A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9F33F52-220D-46C7-9862-9D4CAF6F4E85}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCB18230-AE06-49FE-96FB-94EDD5CCE5A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44A1C0D6-1B5F-4FEB-959A-BCD9B18CFB67}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B30AE984-3624-4AE8-8AE4-6F30713AEB48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5347D773-5038-4288-BE0E-549A59938289}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C78DBFCD-7057-4EA5-8502-4B1CEB82C716}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD22563C-5C52-4EB8-B575-592C5C5280E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BC5BB6A-F72A-4339-9AB8-40419E40AF01}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10355,7 +10355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE5A50A-C277-4B9B-8EF5-CCEADDEF94A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEF64BE-83C8-48FC-94F9-288D1F774627}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11630,18 +11630,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21C71784-9FCB-4F0E-81C1-2BCB556959F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F0B133B-E823-48C6-BF81-FEA3EA708DC8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56A17971-643E-488A-A5A2-5764D270A22A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CAE12798-01AB-4F2A-A385-8AD7F67EF3C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D008EED4-7EAB-40EB-84E5-55343F7788F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C3DC8F6-5340-40A2-B4AF-8D76EA23CD4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{495D2488-202D-449D-A04B-6FD416E2840C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42F16CC6-93D2-4456-A757-787E6B774643}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB8C0CC8-90F4-477E-ABE8-7C85EA6AA665}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9845783B-4810-4A14-9FA7-2F1ED0A66563}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47D75BCF-A1A1-4A1A-A3C2-7F0266464263}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3C09A00-F7B6-4411-A32E-1CE22F38696E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE5F1CFD-022C-4640-B0E8-2EA6D13EEA28}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{719CE5BE-0B22-43B2-86DF-8659A6131219}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46A44BCD-548D-42EE-A6BB-939D71A6D005}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C0C81329-EBA5-4E65-8479-63D507F9A861}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52D29FF8-5022-4C7F-A2B0-502D5370058E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5A14D18-8E3A-4288-8501-AA62CC60EDAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B5339B1-825F-4F33-8521-3CDFDEE56DD1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AA2FE75-B532-42DA-ABB8-4ED38D33F34C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8738FF04-47BE-40F3-BEC2-8A0C84660B7E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5A20FC3F-CB77-43B8-AA29-93FD502D2643}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{573AC5AE-386B-4968-8FB9-7CBCCD83A52F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95F65F19-0F6D-4D1E-BC40-61803E389328}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11654,7 +11654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0FC063-AC94-401B-A2A9-EAF6620932C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D26A9BD-0195-4433-A6BF-D8D5A1241F02}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12919,18 +12919,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F97E2B25-058C-45C8-A6FE-8B3D032C961C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA3A9F51-17E3-48FF-88BF-CBC2179D5493}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{48E6C7A3-EECA-461A-AE70-EDD5404C06C5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D3BA9989-0093-4670-B9FC-C64197031221}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7AEA1DDF-F5EB-4F92-AD4C-5D910D1F4510}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A63D42AE-9D05-4D64-AC3C-CC02D339DA81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBB4B144-A04C-44A6-B291-1A34B423546E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CEFBBF9-B089-43F4-AC62-ED1838966A56}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B692714-B55C-4CF2-B869-D45DA7D5CBF3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FFA382F7-E632-4E97-B335-A9A0B5779132}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBD9DD40-E7D0-47FB-9B20-952ABE5DF919}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D14C08E7-E1B0-49B6-A1D0-835D06461C66}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFEADF70-3F37-4DE5-B524-86C4144BACAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{058BE451-0307-4A76-9857-6716EAC2327C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A5BE426-A917-4F1A-8558-ACF9D2E264BD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D2567EB5-CCEA-4775-B467-6226F5E7BE32}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45F8A59D-D448-4B0C-BE12-997F8AE11BF5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89A849DB-A6E7-44BB-BF7C-21BC88CDEB3C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB1FF7E2-3BBD-4A76-B781-07116506C999}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{581ADB54-4F03-46E6-9152-BC57CACF2907}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC420833-1077-4A8C-9FE9-7CBB0EA812F8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2ED43103-46B8-44E4-8215-2C8E54B8E5BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E180271C-8FEA-484D-93CB-3E847BC17850}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA5DBCCE-DB13-4FE2-968B-DD9740906148}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12943,7 +12943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F9B7D9-6FF8-4A20-8000-04A04C6664D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE536F3-2765-4AA3-AA32-411F98C5C419}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14211,18 +14211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71BEAA46-A873-4BA6-B6BE-3697CCDD99DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18C71C1F-BE55-4347-B9DC-3AF15DFDAB2B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D4D79832-B0A7-497C-BCE1-B2D766870661}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B8D9BBD-D27F-4FDB-9F51-A62C883F1C22}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97389CB8-B9B9-40DA-9A85-53120E1ED809}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FAD39228-FFC5-4BC5-B92F-5A3561EB7737}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95D66E04-8A3B-4E6F-98AA-519297C1ACBD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0646D90-9F50-4595-BC10-E5FE8ED1E2F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B0988FC-3253-4393-89EC-A381CA329902}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1647FD3B-56DA-4ECF-B9AA-1C199BCD8D7E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAC9D801-F5C6-47B7-86DD-59B0F47FCE1E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5755344D-CAED-4AD2-8980-978D390FA953}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60F0142F-DD2E-4D98-89C1-235C4CC9B9B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D1DCAC8-AAAA-425A-81AD-7EFD7D5E3617}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E3EC8DA-378B-462D-9E37-542CCF1E93C9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2431CBDF-CF80-4B5F-9655-79F30B50618D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86376E8B-DC77-45B5-83A6-520589834D1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66F0DE3F-B82C-4C2A-9FC0-D03F753BD4BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A531F44-EBA1-4838-A920-42AC83712949}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0854696-99D3-4239-95AA-DD956DB529DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD3490BB-0D01-4012-B410-8CB228AB51FF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B51430C-2703-46F3-B0AC-ED79C695978C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{278F1BAF-30FF-4011-9C8F-D4CF1261A2F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC31D521-472D-4D66-BDC5-5E251C832774}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14235,7 +14235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8383479C-F6CD-4BFF-ADED-E4B7411008ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DDB343-E4D4-4F59-B8C6-2BA36CC093F9}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15501,18 +15501,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{398142FC-2670-4389-B725-F19897D21388}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{617A1082-387A-4010-B78F-6F3D9E2EE882}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3C09B4B-7718-438B-BA03-80E8BF852D94}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{437D349F-834B-47E4-AD76-280C259159CF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34E51E69-BB2F-46F5-A8E5-9B94B3C76675}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5241C175-A4B9-4DA5-895E-0313718DB911}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{221E45F7-126C-4325-B721-B6798EDD8038}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A0383DA-2A7C-42EB-B131-1A4D25CF0988}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4956AF09-5E81-4D08-9FCD-58BC0898A2CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6E309816-91C4-454E-AF87-DFCC16506420}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{158E665E-C9F7-4B14-9D2C-F0B1BD4F0116}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61C07E22-AE6C-4DB9-B49E-DF76EF0019AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BF0B948-1131-46E7-B317-E1375F1CFBEA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA54AB37-4B6E-4307-9CC7-66E00FEED80D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D4BAF55-277B-48CB-88A7-E377DC01559F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0925C7F3-C3E7-4BD4-A157-B5F538ED9CE6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C422852-60F5-4826-87EC-A60504D30222}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{860C3FE3-9A86-472D-A18D-B4E5057DB01E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2ED42344-5499-47EB-ABF5-3D5CAD607FAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AE05D8C-C0D3-4F3D-9F00-2FF742118AC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F260A52-FBDA-47E8-90F5-FB13D1AA0913}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7645304E-A33D-4097-BBDA-A90D964CDA19}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD9A4D39-7A3D-4937-975D-E5F23BB1C521}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{938B536D-B1EB-4FC8-A27F-D23F04EE2ADD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15525,7 +15525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF2C5A8-4284-4464-B8E3-31F141FFE4CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64102BCB-B38F-42DC-9914-0863CBC34A68}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16791,18 +16791,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DF46FAD-7A5D-4F79-807B-9D6E51AD1173}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93F40A27-AA8B-4814-B67A-0B91368B371F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E33BAC3D-D4C7-427F-8244-C696D8DF657C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F0B9A4B7-5CEB-4BC7-A1F4-8829DAEF26E2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0753CA4E-C7C5-4B28-B868-C993C1478214}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91342D0F-61EC-4DD1-A14D-353E83C22F0B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8FB75F76-6660-4294-AF50-DBA0C0B4C86C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EC0C77E-1C65-49FA-8EA8-01C8EA75A99F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A4383F9-8DCC-4558-9457-85318E64BEAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{468CE648-515E-48AB-8856-B8ADD0AC423B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9875DAF-EC14-4162-BCA3-F32EF14E519B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64D8DAB4-5F93-487E-A22D-8C14C35B3AA5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3D41A9F-2608-4C4E-8104-4E72DC2BDB3D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F269446-C3E6-422C-9110-77FEB4610F14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DE5E305-1EFF-407F-B534-57511466D776}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C69D2264-294A-461F-AC36-BEA7A77B89B7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A947F144-594A-454C-A9FC-4C0FD2170CCF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F213B232-A622-435B-A21B-14D13AEE375E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43416B34-8C92-4EFC-A29F-CB331D2DA949}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF3258BE-7D37-479D-82E2-4137D1E0FDB3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50188DD1-9DA5-4A90-B436-5825640624A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30FFC90F-8FC6-4B83-B375-66051794E4EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{352441D5-DBDE-4AE2-923F-8B1A64A703AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B9B013B-4FC8-4CC0-8455-ECF8AFD1F7AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
